--- a/气象/分站资料/俄罗斯/乌斯季卡连加.xlsx
+++ b/气象/分站资料/俄罗斯/乌斯季卡连加.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\分站资料\俄罗斯\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE147B2E-D69D-4614-99BC-C5EBDF1385A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC0ABA8-FED5-4A3B-B6D4-8B902BBD6849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D308DEC9-CED1-4015-BAB2-E937FD661EDE}"/>
   </bookViews>
@@ -34,37 +34,311 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>低温-40天数</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
+  <si>
+    <t>冬季</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>低温-45天数</t>
+    <t>1959~1960冬</t>
+  </si>
+  <si>
+    <t>1960~1961冬</t>
+  </si>
+  <si>
+    <t>1961~1962冬</t>
+  </si>
+  <si>
+    <t>1962~1963冬</t>
+  </si>
+  <si>
+    <t>1963~1964冬</t>
+  </si>
+  <si>
+    <t>1964~1965冬</t>
+  </si>
+  <si>
+    <t>1965~1966冬</t>
+  </si>
+  <si>
+    <t>1966~1967冬</t>
+  </si>
+  <si>
+    <t>1967~1968冬</t>
+  </si>
+  <si>
+    <t>1968~1969冬</t>
+  </si>
+  <si>
+    <t>1969~1970冬</t>
+  </si>
+  <si>
+    <t>1970~1971冬</t>
+  </si>
+  <si>
+    <t>1971~1972冬</t>
+  </si>
+  <si>
+    <t>1972~1973冬</t>
+  </si>
+  <si>
+    <t>1973~1974冬</t>
+  </si>
+  <si>
+    <t>1974~1975冬</t>
+  </si>
+  <si>
+    <t>1975~1976冬</t>
+  </si>
+  <si>
+    <t>1976~1977冬</t>
+  </si>
+  <si>
+    <t>1977~1978冬</t>
+  </si>
+  <si>
+    <t>1978~1979冬</t>
+  </si>
+  <si>
+    <t>1979~1980冬</t>
+  </si>
+  <si>
+    <t>1980~1981冬</t>
+  </si>
+  <si>
+    <t>1981~1982冬</t>
+  </si>
+  <si>
+    <t>1982~1983冬</t>
+  </si>
+  <si>
+    <t>1983~1984冬</t>
+  </si>
+  <si>
+    <t>1984~1985冬</t>
+  </si>
+  <si>
+    <t>1985~1986冬</t>
+  </si>
+  <si>
+    <t>1986~1987冬</t>
+  </si>
+  <si>
+    <t>1987~1988冬</t>
+  </si>
+  <si>
+    <t>1988~1989冬</t>
+  </si>
+  <si>
+    <t>1989~1990冬</t>
+  </si>
+  <si>
+    <t>1990~1991冬</t>
+  </si>
+  <si>
+    <t>1991~1992冬</t>
+  </si>
+  <si>
+    <t>1992~1993冬</t>
+  </si>
+  <si>
+    <t>1993~1994冬</t>
+  </si>
+  <si>
+    <t>1994~1995冬</t>
+  </si>
+  <si>
+    <t>1995~1996冬</t>
+  </si>
+  <si>
+    <t>1996~1997冬</t>
+  </si>
+  <si>
+    <t>1997~1998冬</t>
+  </si>
+  <si>
+    <t>1998~1999冬</t>
+  </si>
+  <si>
+    <t>1999~2000冬</t>
+  </si>
+  <si>
+    <t>2000~2001冬</t>
+  </si>
+  <si>
+    <t>2001~2002冬</t>
+  </si>
+  <si>
+    <t>2002~2003冬</t>
+  </si>
+  <si>
+    <t>2003~2004冬</t>
+  </si>
+  <si>
+    <t>2004~2005冬</t>
+  </si>
+  <si>
+    <t>2005~2006冬</t>
+  </si>
+  <si>
+    <t>2006~2007冬</t>
+  </si>
+  <si>
+    <t>2007~2008冬</t>
+  </si>
+  <si>
+    <t>2008~2009冬</t>
+  </si>
+  <si>
+    <t>2009~2010冬</t>
+  </si>
+  <si>
+    <t>2010~2011冬</t>
+  </si>
+  <si>
+    <t>2011~2012冬</t>
+  </si>
+  <si>
+    <t>2012~2013冬</t>
+  </si>
+  <si>
+    <t>2013~2014冬</t>
+  </si>
+  <si>
+    <t>2014~2015冬</t>
+  </si>
+  <si>
+    <t>2015~2016冬</t>
+  </si>
+  <si>
+    <t>2016~2017冬</t>
+  </si>
+  <si>
+    <t>2017~2018冬</t>
+  </si>
+  <si>
+    <t>2018~2019冬</t>
+  </si>
+  <si>
+    <t>零下50度天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>低温-50天数</t>
+    <t>2019~2020冬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当年最低</t>
+    <t>2020~2021冬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乌斯季卡连加各年低温</t>
+    <t>2021~2022冬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年份</t>
+    <t>2022~2023冬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>2023~2024冬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26.02.1971</t>
+    <t>2024~2025冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共 66 冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共 97 次 -50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低气温(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬均最低 -49.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无 -50</t>
+  </si>
+  <si>
+    <t>无 -50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共17天 -50</t>
+  </si>
+  <si>
+    <t>共1天 -50</t>
+  </si>
+  <si>
+    <t>共24天 -50</t>
+  </si>
+  <si>
+    <t>共2天 -50</t>
+  </si>
+  <si>
+    <t>共3天 -50</t>
+  </si>
+  <si>
+    <t>共4天 -50</t>
+  </si>
+  <si>
+    <t>共5天 -50</t>
+  </si>
+  <si>
+    <t>共6天 -50</t>
+  </si>
+  <si>
+    <t>最低温:</t>
+  </si>
+  <si>
+    <t>零下50度天数 = 周期内【日最低气温&lt;=-50℃】的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌斯季卡连加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">各冬低温(零下50度版)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌斯季卡连加:    东经116.517°,  北纬54.45°,  海拔686m.    俄罗斯外贝加尔边疆区通戈科琴斯基区</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +346,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +365,194 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF72585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7209B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CC9F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4895EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4361EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F37C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A0CA3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF480CA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -105,21 +560,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -127,6 +716,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3A0CA3"/>
+      <color rgb="FF7209B7"/>
+      <color rgb="FFF72585"/>
+      <color rgb="FF480CA8"/>
+      <color rgb="FF3F37C9"/>
+      <color rgb="FF4361EE"/>
+      <color rgb="FF4895EF"/>
+      <color rgb="FF4CC9F0"/>
+      <color rgb="FF55A630"/>
+      <color rgb="FFE85D04"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -435,63 +1038,1080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A287566D-3E57-43AF-AD99-F938555C1D94}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="12.59765625" customWidth="1"/>
+    <col min="1" max="2" width="28.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="20">
+        <v>-53.7</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="20">
+        <v>-50.2</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="20">
+        <v>-46.5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="20">
+        <v>-45.5</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="20">
+        <v>-48.4</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1971</v>
-      </c>
-      <c r="E3">
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="20">
+        <v>-50.1</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="20">
+        <v>-51.7</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="20">
+        <v>-47.8</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="20">
+        <v>-46.1</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="20">
+        <v>-54.8</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="20">
+        <v>-49.1</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="20">
         <v>-49.5</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="20">
+        <v>-45.7</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-46.1</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-49.5</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-51</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-48.8</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="20">
+        <v>-53.4</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="20">
+        <v>-48</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="20">
+        <v>-53.4</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="20">
+        <v>-51.3</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="20">
+        <v>-50.4</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="20">
+        <v>-51.2</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="20">
+        <v>-45.7</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="20">
+        <v>-49.9</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="20">
+        <v>-51.1</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="20">
+        <v>-49.1</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="19">
+        <v>-56.4</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="20">
+        <v>-48.9</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="19">
+        <v>-43.3</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="20">
+        <v>-49.6</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="20">
+        <v>-45</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="20">
+        <v>-49.1</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="20">
+        <v>-46.3</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="20">
+        <v>-50.3</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="20">
+        <v>-43.9</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="20">
+        <v>-48.3</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="20">
+        <v>-51.9</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="20">
+        <v>-52.4</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="20">
+        <v>-46</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="20">
+        <v>-48.8</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="20">
+        <v>-53.4</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="20">
+        <v>-44.2</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="20">
+        <v>-52.4</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="20">
+        <v>-46.4</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="20">
+        <v>-49.4</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="20">
+        <v>-50.9</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="20">
+        <v>-47.9</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="20">
+        <v>-49.9</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="20">
+        <v>-46.3</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="20">
+        <v>-50.5</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="20">
+        <v>-50.2</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="20">
+        <v>-50.2</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="20">
+        <v>-49.7</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="20">
+        <v>-49.4</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="20">
+        <v>-45</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="20">
+        <v>-49.4</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="20">
+        <v>-43.9</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="20">
+        <v>-50.2</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="20">
+        <v>-52.2</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="20">
+        <v>-47.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="20">
+        <v>-50.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="20">
+        <v>-46.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="20">
+        <v>-52.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="20">
+        <v>-46.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="20">
+        <v>-45.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="24"/>
+    </row>
+    <row r="70" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D68">
+    <sortCondition ref="A3:A68"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A70:D70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D68">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF72585"/>
+        <color rgb="FF7209B7"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D68">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF72585"/>
+        <color rgb="FF7209B7"/>
+        <color rgb="FF3A0CA3"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/气象/分站资料/俄罗斯/乌斯季卡连加.xlsx
+++ b/气象/分站资料/俄罗斯/乌斯季卡连加.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\分站资料\俄罗斯\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC0ABA8-FED5-4A3B-B6D4-8B902BBD6849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8965E5F7-10A9-4779-AB11-BE50B8A8D46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D308DEC9-CED1-4015-BAB2-E937FD661EDE}"/>
   </bookViews>
@@ -34,278 +34,328 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
   <si>
     <t>冬季</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1959~1960冬</t>
-  </si>
-  <si>
-    <t>1960~1961冬</t>
-  </si>
-  <si>
-    <t>1961~1962冬</t>
-  </si>
-  <si>
-    <t>1962~1963冬</t>
-  </si>
-  <si>
-    <t>1963~1964冬</t>
-  </si>
-  <si>
-    <t>1964~1965冬</t>
-  </si>
-  <si>
-    <t>1965~1966冬</t>
-  </si>
-  <si>
-    <t>1966~1967冬</t>
-  </si>
-  <si>
-    <t>1967~1968冬</t>
-  </si>
-  <si>
-    <t>1968~1969冬</t>
-  </si>
-  <si>
-    <t>1969~1970冬</t>
-  </si>
-  <si>
-    <t>1970~1971冬</t>
-  </si>
-  <si>
-    <t>1971~1972冬</t>
-  </si>
-  <si>
-    <t>1972~1973冬</t>
-  </si>
-  <si>
-    <t>1973~1974冬</t>
-  </si>
-  <si>
-    <t>1974~1975冬</t>
-  </si>
-  <si>
-    <t>1975~1976冬</t>
-  </si>
-  <si>
-    <t>1976~1977冬</t>
-  </si>
-  <si>
-    <t>1977~1978冬</t>
-  </si>
-  <si>
-    <t>1978~1979冬</t>
-  </si>
-  <si>
-    <t>1979~1980冬</t>
-  </si>
-  <si>
-    <t>1980~1981冬</t>
-  </si>
-  <si>
-    <t>1981~1982冬</t>
-  </si>
-  <si>
-    <t>1982~1983冬</t>
-  </si>
-  <si>
-    <t>1983~1984冬</t>
-  </si>
-  <si>
-    <t>1984~1985冬</t>
-  </si>
-  <si>
-    <t>1985~1986冬</t>
-  </si>
-  <si>
-    <t>1986~1987冬</t>
-  </si>
-  <si>
-    <t>1987~1988冬</t>
-  </si>
-  <si>
-    <t>1988~1989冬</t>
-  </si>
-  <si>
-    <t>1989~1990冬</t>
-  </si>
-  <si>
-    <t>1990~1991冬</t>
-  </si>
-  <si>
-    <t>1991~1992冬</t>
-  </si>
-  <si>
-    <t>1992~1993冬</t>
-  </si>
-  <si>
-    <t>1993~1994冬</t>
-  </si>
-  <si>
-    <t>1994~1995冬</t>
-  </si>
-  <si>
-    <t>1995~1996冬</t>
-  </si>
-  <si>
-    <t>1996~1997冬</t>
-  </si>
-  <si>
-    <t>1997~1998冬</t>
-  </si>
-  <si>
-    <t>1998~1999冬</t>
-  </si>
-  <si>
-    <t>1999~2000冬</t>
-  </si>
-  <si>
-    <t>2000~2001冬</t>
-  </si>
-  <si>
-    <t>2001~2002冬</t>
-  </si>
-  <si>
-    <t>2002~2003冬</t>
-  </si>
-  <si>
-    <t>2003~2004冬</t>
-  </si>
-  <si>
-    <t>2004~2005冬</t>
-  </si>
-  <si>
-    <t>2005~2006冬</t>
-  </si>
-  <si>
-    <t>2006~2007冬</t>
-  </si>
-  <si>
-    <t>2007~2008冬</t>
-  </si>
-  <si>
-    <t>2008~2009冬</t>
-  </si>
-  <si>
-    <t>2009~2010冬</t>
-  </si>
-  <si>
-    <t>2010~2011冬</t>
-  </si>
-  <si>
-    <t>2011~2012冬</t>
-  </si>
-  <si>
-    <t>2012~2013冬</t>
-  </si>
-  <si>
-    <t>2013~2014冬</t>
-  </si>
-  <si>
-    <t>2014~2015冬</t>
-  </si>
-  <si>
-    <t>2015~2016冬</t>
-  </si>
-  <si>
-    <t>2016~2017冬</t>
-  </si>
-  <si>
-    <t>2017~2018冬</t>
-  </si>
-  <si>
-    <t>2018~2019冬</t>
-  </si>
-  <si>
     <t>零下50度天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019~2020冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020~2021冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021~2022冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022~2023冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023~2024冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024~2025冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共 66 冬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共 97 次 -50</t>
+    <t>乌斯季卡连加 1959~1960冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1960~1961冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1961~1962冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1962~1963冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1963~1964冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1964~1965冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1965~1966冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1966~1967冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1967~1968冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1968~1969冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1969~1970冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1970~1971冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1971~1972冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1972~1973冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1973~1974冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1974~1975冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1975~1976冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1976~1977冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1977~1978冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1978~1979冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1979~1980冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1980~1981冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1981~1982冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1982~1983冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1983~1984冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1984~1985冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1985~1986冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1986~1987冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1987~1988冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1988~1989冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1989~1990冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1990~1991冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1991~1992冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1992~1993冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1993~1994冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1994~1995冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1995~1996冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1996~1997冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1997~1998冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1998~1999冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 1999~2000冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2000~2001冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2001~2002冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2002~2003冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2003~2004冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2004~2005冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2005~2006冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2006~2007冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2007~2008冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2008~2009冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2009~2010冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2010~2011冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2011~2012冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2012~2013冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2013~2014冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2014~2015冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2015~2016冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2016~2017冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2017~2018冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2018~2019冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2019~2020冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2020~2021冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2021~2022冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2022~2023冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2023~2024冬</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加 2024~2025冬</t>
+  </si>
+  <si>
+    <t>共 17 天低温达到 -50℃</t>
+  </si>
+  <si>
+    <t>共 1 天低温达到 -50℃</t>
+  </si>
+  <si>
+    <t>共 24 天低温达到 -50℃</t>
+  </si>
+  <si>
+    <t>共 2 天低温达到 -50℃</t>
+  </si>
+  <si>
+    <t>共 3 天低温达到 -50℃</t>
+  </si>
+  <si>
+    <t>共 4 天低温达到 -50℃</t>
+  </si>
+  <si>
+    <t>共 5 天低温达到 -50℃</t>
+  </si>
+  <si>
+    <t>共 6 天低温达到 -50℃</t>
+  </si>
+  <si>
+    <t>最低</t>
+  </si>
+  <si>
+    <t>最低气温</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最低气温(℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬均最低 -49.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无 -50</t>
-  </si>
-  <si>
-    <t>无 -50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共17天 -50</t>
-  </si>
-  <si>
-    <t>共1天 -50</t>
-  </si>
-  <si>
-    <t>共24天 -50</t>
-  </si>
-  <si>
-    <t>共2天 -50</t>
-  </si>
-  <si>
-    <t>共3天 -50</t>
-  </si>
-  <si>
-    <t>共4天 -50</t>
-  </si>
-  <si>
-    <t>共5天 -50</t>
-  </si>
-  <si>
-    <t>共6天 -50</t>
-  </si>
-  <si>
-    <t>最低温:</t>
-  </si>
-  <si>
-    <t>零下50度天数 = 周期内【日最低气温&lt;=-50℃】的天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">共 </t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="24"/>
+        <sz val="20"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26冬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低温达到 -50℃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">冬均最低 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-49.1℃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无 -50℃</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="32"/>
         <color rgb="FFFFFF00"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -317,6 +367,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="32"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>各冬低温(零下50度版)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="24"/>
         <color rgb="FF00B0F0"/>
         <rFont val="等线"/>
@@ -324,20 +386,56 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">各冬低温(零下50度版)
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="2" tint="-0.499984740745262"/>
+        <color rgb="FFFFFF00"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>乌斯季卡连加:    东经116.517°,  北纬54.45°,  海拔686m.    俄罗斯外贝加尔边疆区通戈科琴斯基区</t>
+      <t>乌斯季卡连加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:    东经116.517°,  北纬54.45°,  海拔686m.  俄罗斯</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外贝加尔边疆区</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通戈科琴斯基区</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,9 +445,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0\℃"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,24 +501,6 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color rgb="FFFFFF00"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -464,15 +544,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -482,8 +553,44 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="2" tint="-0.499984740745262"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -552,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -610,22 +717,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,73 +739,70 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A287566D-3E57-43AF-AD99-F938555C1D94}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1046,1049 +1141,1051 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="28.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" style="14" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="18"/>
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="20">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="19">
         <v>-53.7</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="20">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="19">
         <v>-50.2</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="20">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="19">
         <v>-46.5</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="20">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="19">
         <v>-45.5</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="20">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="19">
         <v>-48.4</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="20">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="19">
         <v>-50.1</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="20">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="19">
         <v>-51.7</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="20">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="19">
         <v>-47.8</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="20">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="19">
         <v>-46.1</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="20">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="19">
         <v>-54.8</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="20">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="19">
         <v>-49.1</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="20">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="19">
         <v>-49.5</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="20">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="19">
         <v>-45.7</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="19">
         <v>-46.1</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="20">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="19">
         <v>-49.5</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="19">
         <v>-51</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="20">
+        <v>19</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="19">
         <v>-48.8</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="19">
         <v>-53.4</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="20">
+        <v>21</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="19">
         <v>-48</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="20">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="19">
         <v>-53.4</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="20">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="19">
         <v>-51.3</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="20">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="19">
         <v>-50.4</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="20">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="19">
         <v>-51.2</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="20">
+        <v>26</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="19">
         <v>-45.7</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="20">
+        <v>27</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="19">
         <v>-49.9</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="20">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="19">
         <v>-51.1</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="20">
+        <v>29</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="19">
         <v>-49.1</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="19">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="18">
         <v>-56.4</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="20">
+        <v>31</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="19">
         <v>-48.9</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="19">
+        <v>32</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="18">
         <v>-43.3</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="20">
+        <v>33</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="19">
         <v>-49.6</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="20">
+        <v>34</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="19">
         <v>-45</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="20">
+        <v>35</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="19">
         <v>-49.1</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="20">
+        <v>36</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="19">
         <v>-46.3</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="20">
+        <v>37</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="19">
         <v>-50.3</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="20">
+        <v>38</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="19">
         <v>-43.9</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="20">
+        <v>39</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="19">
         <v>-48.3</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="20">
+        <v>40</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="19">
         <v>-51.9</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="20">
+        <v>41</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="19">
         <v>-52.4</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="20">
+        <v>42</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="19">
         <v>-46</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="20">
+        <v>43</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="19">
         <v>-48.8</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="20">
+        <v>44</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="19">
         <v>-53.4</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="20">
+        <v>45</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="19">
         <v>-44.2</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="20">
+        <v>46</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="19">
         <v>-52.4</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="20">
+        <v>47</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="19">
         <v>-46.4</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="20">
+        <v>48</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="19">
         <v>-49.4</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="20">
+        <v>49</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="19">
         <v>-50.9</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="20">
+        <v>50</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="19">
         <v>-47.9</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="20">
+        <v>51</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="19">
         <v>-49.9</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="20">
+        <v>52</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="19">
         <v>-46.3</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="20">
+        <v>53</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="19">
         <v>-50.5</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="20">
+        <v>54</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="19">
         <v>-50.2</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="20">
+        <v>55</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="19">
         <v>-50.2</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="20">
+        <v>56</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="19">
         <v>-49.7</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="20">
+        <v>57</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="19">
         <v>-49.4</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="20">
+        <v>58</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="19">
         <v>-45</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="20">
+        <v>59</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="19">
         <v>-49.4</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="20">
+        <v>60</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="19">
         <v>-43.9</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="20">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="19">
         <v>-50.2</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="20">
+        <v>62</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="19">
         <v>-52.2</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="20">
+        <v>63</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="19">
         <v>-47.3</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="20">
+        <v>64</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="19">
         <v>-50.2</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="20">
+        <v>65</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="19">
         <v>-46.5</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="20">
+        <v>66</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="19">
         <v>-52.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="20">
+        <v>67</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="19">
         <v>-46.6</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="20">
+        <v>68</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="19">
         <v>-45.9</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="24"/>
-    </row>
-    <row r="70" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="A69" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D68">
     <sortCondition ref="A3:A68"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C69:D69"/>
-    <mergeCell ref="A70:D70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D68">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF72585"/>
+        <color rgb="FF7209B7"/>
+        <color rgb="FF3A0CA3"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2100,18 +2197,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D68">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF72585"/>
-        <color rgb="FF7209B7"/>
-        <color rgb="FF3A0CA3"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>